--- a/example/template.xlsx
+++ b/example/template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Ngày chứng từ</t>
   </si>
@@ -70,17 +70,31 @@
   </si>
   <si>
     <t>{{address}}</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>{{t_qty}}</t>
+  </si>
+  <si>
+    <t>{{price}}</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>c({{t_qty}}*{{price}})</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-  </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,14 +117,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,7 +149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -166,40 +172,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -492,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -504,60 +524,54 @@
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="41.5703125" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28.5">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:8" ht="28.5">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="8" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -566,32 +580,67 @@
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:8">
       <c r="A6" s="3"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="D7" s="11" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="C10" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="D8" s="10" t="s">
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="11"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="D14" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A3:D3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -613,27 +662,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
